--- a/Code/Results/Cases/Case_2_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012331709266342</v>
+        <v>1.03530768103927</v>
       </c>
       <c r="D2">
-        <v>1.029284288650745</v>
+        <v>1.04204750479483</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.030293591751681</v>
+        <v>1.049452705300672</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047078332084143</v>
+        <v>1.038090244184041</v>
       </c>
       <c r="J2">
-        <v>1.034149734696522</v>
+        <v>1.040422168627361</v>
       </c>
       <c r="K2">
-        <v>1.040350182536578</v>
+        <v>1.044825296074835</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.041346424450593</v>
+        <v>1.052209723029879</v>
       </c>
       <c r="N2">
-        <v>1.035618345938423</v>
+        <v>1.041899687444903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01608964223664</v>
+        <v>1.036104413087579</v>
       </c>
       <c r="D3">
-        <v>1.032069890166408</v>
+        <v>1.042664554177294</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.033766588359908</v>
+        <v>1.050249332629033</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048061362057251</v>
+        <v>1.038253507618088</v>
       </c>
       <c r="J3">
-        <v>1.036151094476857</v>
+        <v>1.040863166113219</v>
       </c>
       <c r="K3">
-        <v>1.042308237461196</v>
+        <v>1.045253605525628</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.043984906889735</v>
+        <v>1.052818639721772</v>
       </c>
       <c r="N3">
-        <v>1.037622547879206</v>
+        <v>1.042341311197774</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018477008601511</v>
+        <v>1.036620511047361</v>
       </c>
       <c r="D4">
-        <v>1.033842658092188</v>
+        <v>1.043064341085981</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.035978643350261</v>
+        <v>1.050765791241896</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048677680280661</v>
+        <v>1.038358242492089</v>
       </c>
       <c r="J4">
-        <v>1.037419595596836</v>
+        <v>1.041148397869035</v>
       </c>
       <c r="K4">
-        <v>1.043549094316589</v>
+        <v>1.04553057108777</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.045661396004888</v>
+        <v>1.053212979461426</v>
       </c>
       <c r="N4">
-        <v>1.038892850416275</v>
+        <v>1.0426269480154</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019470371237357</v>
+        <v>1.036837610696118</v>
       </c>
       <c r="D5">
-        <v>1.034581000748814</v>
+        <v>1.043232532877899</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.036900401362923</v>
+        <v>1.050983144789395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048932130396046</v>
+        <v>1.038402055061362</v>
       </c>
       <c r="J5">
-        <v>1.03794667813963</v>
+        <v>1.041268278533691</v>
       </c>
       <c r="K5">
-        <v>1.044064636878357</v>
+        <v>1.045646963149351</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.046359009079312</v>
+        <v>1.053378837173265</v>
       </c>
       <c r="N5">
-        <v>1.039420681476736</v>
+        <v>1.042746998924349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019636566825653</v>
+        <v>1.036874070375423</v>
       </c>
       <c r="D6">
-        <v>1.034704570565132</v>
+        <v>1.04326078008369</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.037054695089681</v>
+        <v>1.051019653088884</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04897458333759</v>
+        <v>1.038409398581711</v>
       </c>
       <c r="J6">
-        <v>1.038034818617381</v>
+        <v>1.041288405183068</v>
       </c>
       <c r="K6">
-        <v>1.044150844290282</v>
+        <v>1.045666503254264</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.046475725474041</v>
+        <v>1.053406689895527</v>
       </c>
       <c r="N6">
-        <v>1.039508947124076</v>
+        <v>1.042767154155878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018490321975326</v>
+        <v>1.036623411426778</v>
       </c>
       <c r="D7">
-        <v>1.033852550852521</v>
+        <v>1.043066587998334</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.035990991796679</v>
+        <v>1.050768694612395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048681098419993</v>
+        <v>1.038358828775158</v>
       </c>
       <c r="J7">
-        <v>1.037426662645801</v>
+        <v>1.041149999842853</v>
       </c>
       <c r="K7">
-        <v>1.043556006857861</v>
+        <v>1.045532126499787</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.045670745525779</v>
+        <v>1.053215195358745</v>
       </c>
       <c r="N7">
-        <v>1.038899927501259</v>
+        <v>1.042628552264204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013611077991322</v>
+        <v>1.035576823545311</v>
       </c>
       <c r="D8">
-        <v>1.030231957664841</v>
+        <v>1.042255931843213</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.03147474349375</v>
+        <v>1.04972172354092</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047414695519054</v>
+        <v>1.038145607294648</v>
       </c>
       <c r="J8">
-        <v>1.034831686646748</v>
+        <v>1.040571230504723</v>
       </c>
       <c r="K8">
-        <v>1.041017416092113</v>
+        <v>1.044970081578723</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.042244601401964</v>
+        <v>1.052415439942895</v>
       </c>
       <c r="N8">
-        <v>1.03630126633864</v>
+        <v>1.042048961007228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004659521524789</v>
+        <v>1.033736962001807</v>
       </c>
       <c r="D9">
-        <v>1.023615984341404</v>
+        <v>1.040831475577501</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.023235706543704</v>
+        <v>1.047884480355137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045027845239147</v>
+        <v>1.037762965356659</v>
       </c>
       <c r="J9">
-        <v>1.030048806265723</v>
+        <v>1.039550479339058</v>
       </c>
       <c r="K9">
-        <v>1.036337185745958</v>
+        <v>1.04397837259569</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.035962722629918</v>
+        <v>1.051008770660329</v>
       </c>
       <c r="N9">
-        <v>1.03151159371887</v>
+        <v>1.041026760257826</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9984324336908045</v>
+        <v>1.032513424714287</v>
       </c>
       <c r="D10">
-        <v>1.019034125135631</v>
+        <v>1.039884653317156</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.017537795321922</v>
+        <v>1.046664920116627</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043326477268613</v>
+        <v>1.037503262102882</v>
       </c>
       <c r="J10">
-        <v>1.026708383973039</v>
+        <v>1.038869460296474</v>
       </c>
       <c r="K10">
-        <v>1.033068011543335</v>
+        <v>1.043316429658141</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.03159745830432</v>
+        <v>1.050072841994964</v>
       </c>
       <c r="N10">
-        <v>1.028166427643378</v>
+        <v>1.040344774090087</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.995669375609732</v>
+        <v>1.031984362184684</v>
       </c>
       <c r="D11">
-        <v>1.017006551800432</v>
+        <v>1.039475359875725</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.0150179725171</v>
+        <v>1.046138112666359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04256227719589</v>
+        <v>1.037389723684894</v>
       </c>
       <c r="J11">
-        <v>1.025223430009087</v>
+        <v>1.038574464907409</v>
       </c>
       <c r="K11">
-        <v>1.031614721262282</v>
+        <v>1.043029627328618</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.029662122405206</v>
+        <v>1.049668035004611</v>
       </c>
       <c r="N11">
-        <v>1.026679364874471</v>
+        <v>1.040049359773734</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9946325672977885</v>
+        <v>1.031787957352354</v>
       </c>
       <c r="D12">
-        <v>1.016246602104079</v>
+        <v>1.03932343515219</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.014073745454658</v>
+        <v>1.04594262586412</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042274163991286</v>
+        <v>1.037347388141231</v>
       </c>
       <c r="J12">
-        <v>1.024665836538728</v>
+        <v>1.038464875323858</v>
       </c>
       <c r="K12">
-        <v>1.031069024468409</v>
+        <v>1.042923070991078</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.028936192089906</v>
+        <v>1.049517741954692</v>
       </c>
       <c r="N12">
-        <v>1.026120979557427</v>
+        <v>1.039939614560404</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9948554484808592</v>
+        <v>1.03183008173377</v>
       </c>
       <c r="D13">
-        <v>1.016409926928406</v>
+        <v>1.039356018735447</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.014276664676167</v>
+        <v>1.045984549681942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042336159885431</v>
+        <v>1.037356476592828</v>
       </c>
       <c r="J13">
-        <v>1.024785718228947</v>
+        <v>1.03848838332656</v>
       </c>
       <c r="K13">
-        <v>1.031186347932363</v>
+        <v>1.042945928804925</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.029092230730247</v>
+        <v>1.049549977115421</v>
       </c>
       <c r="N13">
-        <v>1.026241031493397</v>
+        <v>1.039963155947166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9955838894049898</v>
+        <v>1.031968124993658</v>
       </c>
       <c r="D14">
-        <v>1.016943874825053</v>
+        <v>1.039462799576055</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.014940092866956</v>
+        <v>1.046121949718169</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0425385492182</v>
+        <v>1.037386227522765</v>
       </c>
       <c r="J14">
-        <v>1.025177463229688</v>
+        <v>1.038565406499947</v>
       </c>
       <c r="K14">
-        <v>1.031569735024423</v>
+        <v>1.043020819854369</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.02960226246732</v>
+        <v>1.049655610290279</v>
       </c>
       <c r="N14">
-        <v>1.026633332816973</v>
+        <v>1.040040288502294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9960313020600464</v>
+        <v>1.03205319296941</v>
       </c>
       <c r="D15">
-        <v>1.01727194592514</v>
+        <v>1.039528604757453</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.015347748468161</v>
+        <v>1.046206632044901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042662680265131</v>
+        <v>1.037404536565153</v>
       </c>
       <c r="J15">
-        <v>1.025418026144213</v>
+        <v>1.038612861049369</v>
       </c>
       <c r="K15">
-        <v>1.0318051667058</v>
+        <v>1.043066959405393</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.029915565724791</v>
+        <v>1.049720703741723</v>
       </c>
       <c r="N15">
-        <v>1.026874237358429</v>
+        <v>1.040087810442619</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9986143645178898</v>
+        <v>1.032548552536717</v>
       </c>
       <c r="D16">
-        <v>1.019167747346483</v>
+        <v>1.039911831407645</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.017703890075794</v>
+        <v>1.046699909533547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043376604947657</v>
+        <v>1.037510774471224</v>
       </c>
       <c r="J16">
-        <v>1.026806104638412</v>
+        <v>1.038889035970729</v>
       </c>
       <c r="K16">
-        <v>1.033163649030848</v>
+        <v>1.043335460178082</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.031724925628806</v>
+        <v>1.050099717463655</v>
       </c>
       <c r="N16">
-        <v>1.028264287083305</v>
+        <v>1.040364377564046</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000216476207584</v>
+        <v>1.032859477138005</v>
       </c>
       <c r="D17">
-        <v>1.020345075994329</v>
+        <v>1.040152404586392</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.019167513401009</v>
+        <v>1.047009671023855</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04381698394557</v>
+        <v>1.037577124672016</v>
       </c>
       <c r="J17">
-        <v>1.027666338095163</v>
+        <v>1.039062244772601</v>
       </c>
       <c r="K17">
-        <v>1.034005544287328</v>
+        <v>1.043503837280043</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.032847610867929</v>
+        <v>1.050337586148259</v>
       </c>
       <c r="N17">
-        <v>1.029125742170235</v>
+        <v>1.040537832342284</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001144559320009</v>
+        <v>1.033040905205294</v>
       </c>
       <c r="D18">
-        <v>1.021027604186356</v>
+        <v>1.04029279299518</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.020016170724154</v>
+        <v>1.047190472072985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044071205308363</v>
+        <v>1.037615720867714</v>
       </c>
       <c r="J18">
-        <v>1.028164396208191</v>
+        <v>1.039163263868699</v>
       </c>
       <c r="K18">
-        <v>1.034492983519483</v>
+        <v>1.043602031657695</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.033498117611087</v>
+        <v>1.050476374837291</v>
       </c>
       <c r="N18">
-        <v>1.029624507582911</v>
+        <v>1.040638994897084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001459939590037</v>
+        <v>1.033102779477343</v>
       </c>
       <c r="D19">
-        <v>1.021259626273387</v>
+        <v>1.040340672976092</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.020304694840191</v>
+        <v>1.047252141257484</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044157443367966</v>
+        <v>1.037628863383123</v>
       </c>
       <c r="J19">
-        <v>1.028333599993653</v>
+        <v>1.039197706920566</v>
       </c>
       <c r="K19">
-        <v>1.034658579294744</v>
+        <v>1.043635510454746</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.033719196218911</v>
+        <v>1.050523705588628</v>
       </c>
       <c r="N19">
-        <v>1.029793951657157</v>
+        <v>1.040673486862036</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000045250211092</v>
+        <v>1.032826110513245</v>
       </c>
       <c r="D20">
-        <v>1.020219194819802</v>
+        <v>1.040126586505852</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.019011005233973</v>
+        <v>1.04697642387057</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043770009830121</v>
+        <v>1.03757001675341</v>
       </c>
       <c r="J20">
-        <v>1.027574427649984</v>
+        <v>1.039043662201325</v>
       </c>
       <c r="K20">
-        <v>1.033915593250253</v>
+        <v>1.043485773773279</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.03272760787468</v>
+        <v>1.050312060535253</v>
       </c>
       <c r="N20">
-        <v>1.029033701201682</v>
+        <v>1.040519223381624</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9953696750427178</v>
+        <v>1.031927471572982</v>
       </c>
       <c r="D21">
-        <v>1.016786830937711</v>
+        <v>1.039431352363904</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.0147449605361</v>
+        <v>1.046081483489052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042479069104116</v>
+        <v>1.03737747109047</v>
       </c>
       <c r="J21">
-        <v>1.025062272034176</v>
+        <v>1.038542725503129</v>
       </c>
       <c r="K21">
-        <v>1.031457001176693</v>
+        <v>1.04299876699116</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.02945226804037</v>
+        <v>1.049624501998823</v>
       </c>
       <c r="N21">
-        <v>1.02651797803675</v>
+        <v>1.040017575295859</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9923690383467857</v>
+        <v>1.031363113659649</v>
       </c>
       <c r="D22">
-        <v>1.014589172896793</v>
+        <v>1.038994839986057</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.012014793067222</v>
+        <v>1.045519916291179</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041642716952843</v>
+        <v>1.037255471213699</v>
       </c>
       <c r="J22">
-        <v>1.023447854633284</v>
+        <v>1.038227679649064</v>
       </c>
       <c r="K22">
-        <v>1.029877051769424</v>
+        <v>1.042692421472632</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.027351933847471</v>
+        <v>1.049192614194928</v>
       </c>
       <c r="N22">
-        <v>1.024901267977973</v>
+        <v>1.039702082040544</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9939656697871334</v>
+        <v>1.031662228060879</v>
       </c>
       <c r="D23">
-        <v>1.015758039680546</v>
+        <v>1.039226185106498</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.013466772791665</v>
+        <v>1.045817507072712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04208846641425</v>
+        <v>1.037320234401575</v>
       </c>
       <c r="J23">
-        <v>1.02430707755563</v>
+        <v>1.038394699232299</v>
       </c>
       <c r="K23">
-        <v>1.030717922963075</v>
+        <v>1.042854834321019</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.028469343609288</v>
+        <v>1.049421526881912</v>
       </c>
       <c r="N23">
-        <v>1.025761711095423</v>
+        <v>1.039869338810746</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000122639617716</v>
+        <v>1.032841187235547</v>
       </c>
       <c r="D24">
-        <v>1.02027608802635</v>
+        <v>1.040138252380999</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.01908174011709</v>
+        <v>1.046991446450076</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043791243573532</v>
+        <v>1.037573228839634</v>
       </c>
       <c r="J24">
-        <v>1.027615969446495</v>
+        <v>1.039052058898536</v>
       </c>
       <c r="K24">
-        <v>1.033956249436131</v>
+        <v>1.043493935947578</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.032781845443433</v>
+        <v>1.050323594325585</v>
       </c>
       <c r="N24">
-        <v>1.029075301992308</v>
+        <v>1.040527632003109</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007017778305537</v>
+        <v>1.03421208274889</v>
       </c>
       <c r="D25">
-        <v>1.02535559173688</v>
+        <v>1.041199243510047</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.025400612305731</v>
+        <v>1.04835853211739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045663875900733</v>
+        <v>1.037862702921495</v>
       </c>
       <c r="J25">
-        <v>1.031311252553273</v>
+        <v>1.039814464981151</v>
       </c>
       <c r="K25">
-        <v>1.037572644792089</v>
+        <v>1.044234900626351</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.037617009676213</v>
+        <v>1.051372109586624</v>
       </c>
       <c r="N25">
-        <v>1.032775832824952</v>
+        <v>1.041291120789811</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03530768103927</v>
+        <v>1.01233170926634</v>
       </c>
       <c r="D2">
-        <v>1.04204750479483</v>
+        <v>1.029284288650743</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.049452705300672</v>
+        <v>1.030293591751679</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038090244184041</v>
+        <v>1.047078332084142</v>
       </c>
       <c r="J2">
-        <v>1.040422168627361</v>
+        <v>1.03414973469652</v>
       </c>
       <c r="K2">
-        <v>1.044825296074835</v>
+        <v>1.040350182536576</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.052209723029879</v>
+        <v>1.04134642445059</v>
       </c>
       <c r="N2">
-        <v>1.041899687444903</v>
+        <v>1.035618345938421</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036104413087579</v>
+        <v>1.016089642236639</v>
       </c>
       <c r="D3">
-        <v>1.042664554177294</v>
+        <v>1.032069890166408</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.050249332629033</v>
+        <v>1.033766588359908</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038253507618088</v>
+        <v>1.048061362057251</v>
       </c>
       <c r="J3">
-        <v>1.040863166113219</v>
+        <v>1.036151094476857</v>
       </c>
       <c r="K3">
-        <v>1.045253605525628</v>
+        <v>1.042308237461195</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.052818639721772</v>
+        <v>1.043984906889735</v>
       </c>
       <c r="N3">
-        <v>1.042341311197774</v>
+        <v>1.037622547879206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036620511047361</v>
+        <v>1.01847700860151</v>
       </c>
       <c r="D4">
-        <v>1.043064341085981</v>
+        <v>1.033842658092187</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.050765791241896</v>
+        <v>1.035978643350259</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038358242492089</v>
+        <v>1.04867768028066</v>
       </c>
       <c r="J4">
-        <v>1.041148397869035</v>
+        <v>1.037419595596835</v>
       </c>
       <c r="K4">
-        <v>1.04553057108777</v>
+        <v>1.043549094316588</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.053212979461426</v>
+        <v>1.045661396004887</v>
       </c>
       <c r="N4">
-        <v>1.0426269480154</v>
+        <v>1.038892850416274</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036837610696118</v>
+        <v>1.019470371237357</v>
       </c>
       <c r="D5">
-        <v>1.043232532877899</v>
+        <v>1.034581000748813</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.050983144789395</v>
+        <v>1.036900401362922</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038402055061362</v>
+        <v>1.048932130396046</v>
       </c>
       <c r="J5">
-        <v>1.041268278533691</v>
+        <v>1.037946678139629</v>
       </c>
       <c r="K5">
-        <v>1.045646963149351</v>
+        <v>1.044064636878356</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.053378837173265</v>
+        <v>1.046359009079312</v>
       </c>
       <c r="N5">
-        <v>1.042746998924349</v>
+        <v>1.039420681476735</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036874070375423</v>
+        <v>1.019636566825653</v>
       </c>
       <c r="D6">
-        <v>1.04326078008369</v>
+        <v>1.034704570565132</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.051019653088884</v>
+        <v>1.037054695089681</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038409398581711</v>
+        <v>1.04897458333759</v>
       </c>
       <c r="J6">
-        <v>1.041288405183068</v>
+        <v>1.038034818617382</v>
       </c>
       <c r="K6">
-        <v>1.045666503254264</v>
+        <v>1.044150844290282</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.053406689895527</v>
+        <v>1.046475725474041</v>
       </c>
       <c r="N6">
-        <v>1.042767154155878</v>
+        <v>1.039508947124076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.036623411426778</v>
+        <v>1.018490321975327</v>
       </c>
       <c r="D7">
-        <v>1.043066587998334</v>
+        <v>1.033852550852522</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.050768694612395</v>
+        <v>1.035990991796679</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038358828775158</v>
+        <v>1.048681098419993</v>
       </c>
       <c r="J7">
-        <v>1.041149999842853</v>
+        <v>1.037426662645802</v>
       </c>
       <c r="K7">
-        <v>1.045532126499787</v>
+        <v>1.043556006857862</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.053215195358745</v>
+        <v>1.045670745525781</v>
       </c>
       <c r="N7">
-        <v>1.042628552264204</v>
+        <v>1.03889992750126</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035576823545311</v>
+        <v>1.013611077991322</v>
       </c>
       <c r="D8">
-        <v>1.042255931843213</v>
+        <v>1.030231957664841</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.04972172354092</v>
+        <v>1.03147474349375</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038145607294648</v>
+        <v>1.047414695519055</v>
       </c>
       <c r="J8">
-        <v>1.040571230504723</v>
+        <v>1.034831686646748</v>
       </c>
       <c r="K8">
-        <v>1.044970081578723</v>
+        <v>1.041017416092114</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.052415439942895</v>
+        <v>1.042244601401964</v>
       </c>
       <c r="N8">
-        <v>1.042048961007228</v>
+        <v>1.03630126633864</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033736962001807</v>
+        <v>1.004659521524789</v>
       </c>
       <c r="D9">
-        <v>1.040831475577501</v>
+        <v>1.023615984341404</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.047884480355137</v>
+        <v>1.023235706543704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037762965356659</v>
+        <v>1.045027845239147</v>
       </c>
       <c r="J9">
-        <v>1.039550479339058</v>
+        <v>1.030048806265724</v>
       </c>
       <c r="K9">
-        <v>1.04397837259569</v>
+        <v>1.036337185745958</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.051008770660329</v>
+        <v>1.035962722629918</v>
       </c>
       <c r="N9">
-        <v>1.041026760257826</v>
+        <v>1.031511593718871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032513424714287</v>
+        <v>0.9984324336908036</v>
       </c>
       <c r="D10">
-        <v>1.039884653317156</v>
+        <v>1.01903412513563</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.046664920116627</v>
+        <v>1.017537795321921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037503262102882</v>
+        <v>1.043326477268612</v>
       </c>
       <c r="J10">
-        <v>1.038869460296474</v>
+        <v>1.026708383973038</v>
       </c>
       <c r="K10">
-        <v>1.043316429658141</v>
+        <v>1.033068011543335</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.050072841994964</v>
+        <v>1.031597458304319</v>
       </c>
       <c r="N10">
-        <v>1.040344774090087</v>
+        <v>1.028166427643378</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031984362184684</v>
+        <v>0.9956693756097326</v>
       </c>
       <c r="D11">
-        <v>1.039475359875725</v>
+        <v>1.017006551800433</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.046138112666359</v>
+        <v>1.015017972517101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037389723684894</v>
+        <v>1.04256227719589</v>
       </c>
       <c r="J11">
-        <v>1.038574464907409</v>
+        <v>1.025223430009088</v>
       </c>
       <c r="K11">
-        <v>1.043029627328618</v>
+        <v>1.031614721262282</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.049668035004611</v>
+        <v>1.029662122405206</v>
       </c>
       <c r="N11">
-        <v>1.040049359773734</v>
+        <v>1.026679364874472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031787957352354</v>
+        <v>0.9946325672977886</v>
       </c>
       <c r="D12">
-        <v>1.03932343515219</v>
+        <v>1.016246602104079</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.04594262586412</v>
+        <v>1.014073745454658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037347388141231</v>
+        <v>1.042274163991286</v>
       </c>
       <c r="J12">
-        <v>1.038464875323858</v>
+        <v>1.024665836538728</v>
       </c>
       <c r="K12">
-        <v>1.042923070991078</v>
+        <v>1.03106902446841</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.049517741954692</v>
+        <v>1.028936192089906</v>
       </c>
       <c r="N12">
-        <v>1.039939614560404</v>
+        <v>1.026120979557428</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03183008173377</v>
+        <v>0.9948554484808587</v>
       </c>
       <c r="D13">
-        <v>1.039356018735447</v>
+        <v>1.016409926928406</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.045984549681942</v>
+        <v>1.014276664676166</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037356476592828</v>
+        <v>1.042336159885431</v>
       </c>
       <c r="J13">
-        <v>1.03848838332656</v>
+        <v>1.024785718228947</v>
       </c>
       <c r="K13">
-        <v>1.042945928804925</v>
+        <v>1.031186347932363</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.049549977115421</v>
+        <v>1.029092230730247</v>
       </c>
       <c r="N13">
-        <v>1.039963155947166</v>
+        <v>1.026241031493397</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031968124993658</v>
+        <v>0.9955838894049894</v>
       </c>
       <c r="D14">
-        <v>1.039462799576055</v>
+        <v>1.016943874825053</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.046121949718169</v>
+        <v>1.014940092866956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037386227522765</v>
+        <v>1.0425385492182</v>
       </c>
       <c r="J14">
-        <v>1.038565406499947</v>
+        <v>1.025177463229687</v>
       </c>
       <c r="K14">
-        <v>1.043020819854369</v>
+        <v>1.031569735024423</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.049655610290279</v>
+        <v>1.02960226246732</v>
       </c>
       <c r="N14">
-        <v>1.040040288502294</v>
+        <v>1.026633332816972</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03205319296941</v>
+        <v>0.9960313020600454</v>
       </c>
       <c r="D15">
-        <v>1.039528604757453</v>
+        <v>1.01727194592514</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.046206632044901</v>
+        <v>1.015347748468159</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037404536565153</v>
+        <v>1.042662680265131</v>
       </c>
       <c r="J15">
-        <v>1.038612861049369</v>
+        <v>1.025418026144213</v>
       </c>
       <c r="K15">
-        <v>1.043066959405393</v>
+        <v>1.031805166705799</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.049720703741723</v>
+        <v>1.02991556572479</v>
       </c>
       <c r="N15">
-        <v>1.040087810442619</v>
+        <v>1.026874237358429</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032548552536717</v>
+        <v>0.9986143645178889</v>
       </c>
       <c r="D16">
-        <v>1.039911831407645</v>
+        <v>1.019167747346482</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.046699909533547</v>
+        <v>1.017703890075793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037510774471224</v>
+        <v>1.043376604947656</v>
       </c>
       <c r="J16">
-        <v>1.038889035970729</v>
+        <v>1.026806104638411</v>
       </c>
       <c r="K16">
-        <v>1.043335460178082</v>
+        <v>1.033163649030848</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.050099717463655</v>
+        <v>1.031724925628806</v>
       </c>
       <c r="N16">
-        <v>1.040364377564046</v>
+        <v>1.028264287083304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032859477138005</v>
+        <v>1.000216476207583</v>
       </c>
       <c r="D17">
-        <v>1.040152404586392</v>
+        <v>1.020345075994328</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.047009671023855</v>
+        <v>1.019167513401009</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037577124672016</v>
+        <v>1.04381698394557</v>
       </c>
       <c r="J17">
-        <v>1.039062244772601</v>
+        <v>1.027666338095163</v>
       </c>
       <c r="K17">
-        <v>1.043503837280043</v>
+        <v>1.034005544287328</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.050337586148259</v>
+        <v>1.032847610867928</v>
       </c>
       <c r="N17">
-        <v>1.040537832342284</v>
+        <v>1.029125742170235</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033040905205294</v>
+        <v>1.001144559320008</v>
       </c>
       <c r="D18">
-        <v>1.04029279299518</v>
+        <v>1.021027604186356</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.047190472072985</v>
+        <v>1.020016170724153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037615720867714</v>
+        <v>1.044071205308363</v>
       </c>
       <c r="J18">
-        <v>1.039163263868699</v>
+        <v>1.028164396208191</v>
       </c>
       <c r="K18">
-        <v>1.043602031657695</v>
+        <v>1.034492983519483</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.050476374837291</v>
+        <v>1.033498117611087</v>
       </c>
       <c r="N18">
-        <v>1.040638994897084</v>
+        <v>1.029624507582911</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033102779477343</v>
+        <v>1.001459939590037</v>
       </c>
       <c r="D19">
-        <v>1.040340672976092</v>
+        <v>1.021259626273387</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.047252141257484</v>
+        <v>1.020304694840191</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037628863383123</v>
+        <v>1.044157443367967</v>
       </c>
       <c r="J19">
-        <v>1.039197706920566</v>
+        <v>1.028333599993654</v>
       </c>
       <c r="K19">
-        <v>1.043635510454746</v>
+        <v>1.034658579294744</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.050523705588628</v>
+        <v>1.033719196218912</v>
       </c>
       <c r="N19">
-        <v>1.040673486862036</v>
+        <v>1.029793951657157</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032826110513245</v>
+        <v>1.000045250211093</v>
       </c>
       <c r="D20">
-        <v>1.040126586505852</v>
+        <v>1.020219194819802</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.04697642387057</v>
+        <v>1.019011005233973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03757001675341</v>
+        <v>1.043770009830121</v>
       </c>
       <c r="J20">
-        <v>1.039043662201325</v>
+        <v>1.027574427649984</v>
       </c>
       <c r="K20">
-        <v>1.043485773773279</v>
+        <v>1.033915593250253</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.050312060535253</v>
+        <v>1.032727607874681</v>
       </c>
       <c r="N20">
-        <v>1.040519223381624</v>
+        <v>1.029033701201682</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031927471572982</v>
+        <v>0.9953696750427173</v>
       </c>
       <c r="D21">
-        <v>1.039431352363904</v>
+        <v>1.016786830937711</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.046081483489052</v>
+        <v>1.0147449605361</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03737747109047</v>
+        <v>1.042479069104116</v>
       </c>
       <c r="J21">
-        <v>1.038542725503129</v>
+        <v>1.025062272034175</v>
       </c>
       <c r="K21">
-        <v>1.04299876699116</v>
+        <v>1.031457001176692</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.049624501998823</v>
+        <v>1.02945226804037</v>
       </c>
       <c r="N21">
-        <v>1.040017575295859</v>
+        <v>1.026517978036749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031363113659649</v>
+        <v>0.9923690383467845</v>
       </c>
       <c r="D22">
-        <v>1.038994839986057</v>
+        <v>1.014589172896792</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.045519916291179</v>
+        <v>1.012014793067221</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037255471213699</v>
+        <v>1.041642716952842</v>
       </c>
       <c r="J22">
-        <v>1.038227679649064</v>
+        <v>1.023447854633283</v>
       </c>
       <c r="K22">
-        <v>1.042692421472632</v>
+        <v>1.029877051769423</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.049192614194928</v>
+        <v>1.02735193384747</v>
       </c>
       <c r="N22">
-        <v>1.039702082040544</v>
+        <v>1.024901267977971</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031662228060879</v>
+        <v>0.9939656697871337</v>
       </c>
       <c r="D23">
-        <v>1.039226185106498</v>
+        <v>1.015758039680546</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.045817507072712</v>
+        <v>1.013466772791665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037320234401575</v>
+        <v>1.04208846641425</v>
       </c>
       <c r="J23">
-        <v>1.038394699232299</v>
+        <v>1.024307077555631</v>
       </c>
       <c r="K23">
-        <v>1.042854834321019</v>
+        <v>1.030717922963076</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.049421526881912</v>
+        <v>1.028469343609288</v>
       </c>
       <c r="N23">
-        <v>1.039869338810746</v>
+        <v>1.025761711095424</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032841187235547</v>
+        <v>1.000122639617715</v>
       </c>
       <c r="D24">
-        <v>1.040138252380999</v>
+        <v>1.020276088026349</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.046991446450076</v>
+        <v>1.019081740117089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037573228839634</v>
+        <v>1.043791243573532</v>
       </c>
       <c r="J24">
-        <v>1.039052058898536</v>
+        <v>1.027615969446494</v>
       </c>
       <c r="K24">
-        <v>1.043493935947578</v>
+        <v>1.03395624943613</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.050323594325585</v>
+        <v>1.032781845443432</v>
       </c>
       <c r="N24">
-        <v>1.040527632003109</v>
+        <v>1.029075301992307</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.03421208274889</v>
+        <v>1.007017778305537</v>
       </c>
       <c r="D25">
-        <v>1.041199243510047</v>
+        <v>1.02535559173688</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.04835853211739</v>
+        <v>1.025400612305731</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037862702921495</v>
+        <v>1.045663875900733</v>
       </c>
       <c r="J25">
-        <v>1.039814464981151</v>
+        <v>1.031311252553273</v>
       </c>
       <c r="K25">
-        <v>1.044234900626351</v>
+        <v>1.037572644792088</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.051372109586624</v>
+        <v>1.037617009676213</v>
       </c>
       <c r="N25">
-        <v>1.041291120789811</v>
+        <v>1.032775832824952</v>
       </c>
     </row>
   </sheetData>
